--- a/docs/index_find_11x11.xlsx
+++ b/docs/index_find_11x11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\connect6_AI\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\connect6_AIx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3D9B7-AFEB-4C71-8FE4-5D4AC455CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E6295-9D28-48A8-88CB-395E90F81621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="2292" windowWidth="17280" windowHeight="8976" xr2:uid="{4DFD3FB2-F677-4CBF-8458-BEFB1B7F6FDE}"/>
+    <workbookView xWindow="41970" yWindow="3390" windowWidth="17280" windowHeight="8970" xr2:uid="{4DFD3FB2-F677-4CBF-8458-BEFB1B7F6FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +74,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +480,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -551,19 +560,45 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="C3" s="8">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8">
+        <v>28</v>
+      </c>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -571,7 +606,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="8">
+        <v>31</v>
+      </c>
       <c r="D4" s="7">
         <v>32</v>
       </c>
@@ -605,7 +642,9 @@
       <c r="N4" s="7">
         <v>42</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="8">
+        <v>43</v>
+      </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -613,7 +652,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="8">
+        <v>46</v>
+      </c>
       <c r="D5" s="7">
         <v>47</v>
       </c>
@@ -647,7 +688,9 @@
       <c r="N5" s="7">
         <v>57</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="8">
+        <v>58</v>
+      </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -655,7 +698,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="8">
+        <v>61</v>
+      </c>
       <c r="D6" s="7">
         <v>62</v>
       </c>
@@ -689,7 +734,9 @@
       <c r="N6" s="7">
         <v>72</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="8">
+        <v>73</v>
+      </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -697,7 +744,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="8">
+        <v>76</v>
+      </c>
       <c r="D7" s="7">
         <v>77</v>
       </c>
@@ -731,7 +780,9 @@
       <c r="N7" s="7">
         <v>87</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="8">
+        <v>88</v>
+      </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -739,7 +790,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="8">
+        <v>81</v>
+      </c>
       <c r="D8" s="7">
         <v>92</v>
       </c>
@@ -773,7 +826,9 @@
       <c r="N8" s="7">
         <v>102</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="8">
+        <v>103</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
@@ -781,7 +836,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="8">
+        <v>106</v>
+      </c>
       <c r="D9" s="7">
         <v>107</v>
       </c>
@@ -815,7 +872,9 @@
       <c r="N9" s="7">
         <v>117</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="8">
+        <v>118</v>
+      </c>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
@@ -823,7 +882,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="8">
+        <v>121</v>
+      </c>
       <c r="D10" s="7">
         <v>122</v>
       </c>
@@ -857,7 +918,9 @@
       <c r="N10" s="7">
         <v>132</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="8">
+        <v>133</v>
+      </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -865,7 +928,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="8">
+        <v>136</v>
+      </c>
       <c r="D11" s="7">
         <v>137</v>
       </c>
@@ -899,7 +964,9 @@
       <c r="N11" s="7">
         <v>147</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="8">
+        <v>148</v>
+      </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -907,7 +974,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="8">
+        <v>141</v>
+      </c>
       <c r="D12" s="7">
         <v>142</v>
       </c>
@@ -941,7 +1010,9 @@
       <c r="N12" s="7">
         <v>162</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="8">
+        <v>163</v>
+      </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -949,7 +1020,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="8">
+        <v>166</v>
+      </c>
       <c r="D13" s="7">
         <v>167</v>
       </c>
@@ -983,7 +1056,9 @@
       <c r="N13" s="7">
         <v>177</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="8">
+        <v>178</v>
+      </c>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -991,7 +1066,9 @@
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="8">
+        <v>181</v>
+      </c>
       <c r="D14" s="7">
         <v>182</v>
       </c>
@@ -1025,7 +1102,9 @@
       <c r="N14" s="7">
         <v>192</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="8">
+        <v>193</v>
+      </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -1033,19 +1112,45 @@
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="C15" s="8">
+        <v>196</v>
+      </c>
+      <c r="D15" s="8">
+        <v>197</v>
+      </c>
+      <c r="E15" s="8">
+        <v>198</v>
+      </c>
+      <c r="F15" s="8">
+        <v>199</v>
+      </c>
+      <c r="G15" s="8">
+        <v>200</v>
+      </c>
+      <c r="H15" s="8">
+        <v>201</v>
+      </c>
+      <c r="I15" s="8">
+        <v>202</v>
+      </c>
+      <c r="J15" s="8">
+        <v>203</v>
+      </c>
+      <c r="K15" s="8">
+        <v>204</v>
+      </c>
+      <c r="L15" s="8">
+        <v>205</v>
+      </c>
+      <c r="M15" s="8">
+        <v>206</v>
+      </c>
+      <c r="N15" s="8">
+        <v>207</v>
+      </c>
+      <c r="O15" s="8">
+        <v>208</v>
+      </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
